--- a/data/input/cvicny_dataset_priklad.xlsx
+++ b/data/input/cvicny_dataset_priklad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katerina.safarova\Documents\GitHub\workshopy_R\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA123680-0F02-4677-A169-3350524C1119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B869BF-87F6-4DB8-BEC4-C15714FB6519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{73569CDC-2E69-46D3-B831-04F33D092FAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{73569CDC-2E69-46D3-B831-04F33D092FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="139">
   <si>
     <t>Jakub Svoboda</t>
   </si>
@@ -329,135 +329,24 @@
     <t>Plzeň</t>
   </si>
   <si>
-    <t>Liberec</t>
-  </si>
-  <si>
-    <t>Olomouc</t>
-  </si>
-  <si>
     <t>Ústí nad Labem</t>
   </si>
   <si>
-    <t>Hradec Králové</t>
-  </si>
-  <si>
     <t>České Budějovice</t>
   </si>
   <si>
     <t>Pardubice</t>
   </si>
   <si>
-    <t>Zlín</t>
-  </si>
-  <si>
-    <t>Havířov</t>
-  </si>
-  <si>
-    <t>Kladno</t>
-  </si>
-  <si>
-    <t>Most</t>
-  </si>
-  <si>
-    <t>Opava</t>
-  </si>
-  <si>
-    <t>Frýdek-Místek</t>
-  </si>
-  <si>
-    <t>Karviná</t>
-  </si>
-  <si>
     <t>Jihlava</t>
   </si>
   <si>
     <t>Teplice</t>
   </si>
   <si>
-    <t>Děčín</t>
-  </si>
-  <si>
-    <t>Jindřichův Hradec</t>
-  </si>
-  <si>
-    <t>Česká Lípa</t>
-  </si>
-  <si>
-    <t>Třebíč</t>
-  </si>
-  <si>
-    <t>Dvůr Králové nad Labem</t>
-  </si>
-  <si>
-    <t>Český Těšín</t>
-  </si>
-  <si>
-    <t>Znojmo</t>
-  </si>
-  <si>
-    <t>Sokolov</t>
-  </si>
-  <si>
-    <t>Chomutov</t>
-  </si>
-  <si>
-    <t>Prostějov</t>
-  </si>
-  <si>
-    <t>Chrudim</t>
-  </si>
-  <si>
-    <t>Žďár nad Sázavou</t>
-  </si>
-  <si>
-    <t>Trutnov</t>
-  </si>
-  <si>
-    <t>Nový Jičín</t>
-  </si>
-  <si>
-    <t>Kroměříž</t>
-  </si>
-  <si>
     <t>Mladá Boleslav</t>
   </si>
   <si>
-    <t>Tábor</t>
-  </si>
-  <si>
-    <t>Zábřeh</t>
-  </si>
-  <si>
-    <t>Blansko</t>
-  </si>
-  <si>
-    <t>Klatovy</t>
-  </si>
-  <si>
-    <t>Česká Kamenice</t>
-  </si>
-  <si>
-    <t>Litoměřice</t>
-  </si>
-  <si>
-    <t>Žatec</t>
-  </si>
-  <si>
-    <t>Hodonín</t>
-  </si>
-  <si>
-    <t>Strakonice</t>
-  </si>
-  <si>
-    <t>Slaný</t>
-  </si>
-  <si>
-    <t>Opočno</t>
-  </si>
-  <si>
-    <t>Sušice</t>
-  </si>
-  <si>
     <t>jméno</t>
   </si>
   <si>
@@ -489,6 +378,84 @@
   </si>
   <si>
     <t xml:space="preserve">obvyklá délka spánku </t>
+  </si>
+  <si>
+    <t>Černošice</t>
+  </si>
+  <si>
+    <t>Brno, Plzeň, Praha</t>
+  </si>
+  <si>
+    <t>Rožnov pod Radhoštěm</t>
+  </si>
+  <si>
+    <t>Karlovy Vary</t>
+  </si>
+  <si>
+    <t>Lovosice, Litoměřice, Žatec, Roudnice nad Labem, Chomutov, Kadaň</t>
+  </si>
+  <si>
+    <t>Černošice, Rakovník, Říčany, Praha</t>
+  </si>
+  <si>
+    <t>Brno, Olomouc, Plzeň, Ústí nad Labem, Praha</t>
+  </si>
+  <si>
+    <t>České Budějovice, Praha</t>
+  </si>
+  <si>
+    <t>Ivančice</t>
+  </si>
+  <si>
+    <t>Břeclav</t>
+  </si>
+  <si>
+    <t>Olomouc, Přerov, Uherské Hradiště, Praha</t>
+  </si>
+  <si>
+    <t>Rumburk</t>
+  </si>
+  <si>
+    <t>Rokycany</t>
+  </si>
+  <si>
+    <t>Vysoké Mýto</t>
+  </si>
+  <si>
+    <t>Moravská Třebová</t>
+  </si>
+  <si>
+    <t>Broumov, Dvůr Králové nad Labem, Hradec Králové, Náchod, Trutnov</t>
+  </si>
+  <si>
+    <t>Jablonec nad Nisou, Liberec</t>
+  </si>
+  <si>
+    <t>Ostrov</t>
+  </si>
+  <si>
+    <t>Vyškov</t>
+  </si>
+  <si>
+    <t>Kutná Hora</t>
+  </si>
+  <si>
+    <t>Říčany</t>
+  </si>
+  <si>
+    <t>Brno, Olomouc, Šumperk, Zábřeh</t>
+  </si>
+  <si>
+    <t>Benešov</t>
+  </si>
+  <si>
+    <t>Luhačovice</t>
+  </si>
+  <si>
+    <t>Nymburk</t>
+  </si>
+  <si>
+    <t>Mariánské Lázně</t>
   </si>
 </sst>
 </file>
@@ -898,18 +865,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08900CE0-D9FE-402B-83BD-758B8048CCCE}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G55"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -917,21 +884,21 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>47</v>
@@ -940,13 +907,13 @@
         <v>91</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -960,16 +927,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G4" s="4">
         <v>6.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -983,16 +950,16 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G5" s="4">
         <v>7.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1006,16 +973,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G6" s="4">
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1029,16 +996,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G7" s="4">
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1052,16 +1019,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G8" s="4">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1075,16 +1042,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G9" s="4">
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1098,16 +1065,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G10" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1121,16 +1088,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G11" s="4">
         <v>6.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1144,14 +1111,14 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1165,16 +1132,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G13" s="4">
         <v>8.4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1188,16 +1155,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G14" s="4">
         <v>8.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1211,16 +1178,16 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G15" s="4">
         <v>8.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1234,16 +1201,16 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G16" s="4">
         <v>7.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1260,13 +1227,13 @@
         <v>121</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G17" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1280,16 +1247,16 @@
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G18" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1303,16 +1270,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G19" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1320,14 +1287,14 @@
       <c r="E20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="E21" s="3"/>
       <c r="G21" s="4">
         <v>8.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1341,16 +1308,16 @@
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G22" s="4">
         <v>6.4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1364,16 +1331,16 @@
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G23" s="4">
         <v>6.4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1387,16 +1354,16 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G24" s="4">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1410,16 +1377,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G25" s="4">
         <v>7.4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1433,16 +1400,16 @@
         <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G26" s="4">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1456,16 +1423,16 @@
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G27" s="4">
         <v>6.4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1479,16 +1446,16 @@
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G28" s="4">
         <v>7.6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1502,16 +1469,16 @@
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G29" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1525,16 +1492,16 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G30" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1548,16 +1515,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G31" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1571,16 +1538,16 @@
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G32" s="4">
         <v>6.9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1594,16 +1561,16 @@
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G33" s="4">
         <v>6.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1617,16 +1584,16 @@
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G34" s="4">
         <v>5.9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1640,16 +1607,16 @@
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G35" s="4">
         <v>7.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1663,16 +1630,16 @@
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G36" s="4">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1689,13 +1656,13 @@
         <v>95</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G37" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1709,16 +1676,16 @@
         <v>2</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G38" s="4">
         <v>5.7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1732,16 +1699,16 @@
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G39" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -1755,16 +1722,16 @@
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G40" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -1778,16 +1745,16 @@
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G41" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -1801,16 +1768,16 @@
         <v>1</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G42" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -1821,16 +1788,16 @@
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G43" s="4">
         <v>8.9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -1844,16 +1811,16 @@
         <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G44" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -1867,16 +1834,16 @@
         <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G45" s="4">
         <v>8.5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -1890,16 +1857,16 @@
         <v>2</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G46" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -1913,16 +1880,16 @@
         <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G47" s="4">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -1936,16 +1903,16 @@
         <v>2</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G48" s="4">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -1959,16 +1926,16 @@
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G49" s="4">
         <v>7.8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -1982,16 +1949,16 @@
         <v>2</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G50" s="4">
         <v>8.1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -2005,16 +1972,16 @@
         <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G51" s="4">
         <v>8.1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -2028,16 +1995,16 @@
         <v>2</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G52" s="4">
         <v>7.1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -2051,16 +2018,16 @@
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G53" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -2074,16 +2041,16 @@
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G54" s="4">
         <v>6.1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -2097,16 +2064,16 @@
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G55" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>46</v>
       </c>
@@ -2114,16 +2081,16 @@
         <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G56" s="4"/>
     </row>
